--- a/src/test/java/com/seopa/tests/automated/test/cases/SimpleCarJourney01.xlsx
+++ b/src/test/java/com/seopa/tests/automated/test/cases/SimpleCarJourney01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.mcparland\Documents\selenium_tests\src\test\java\TestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.mcparland\Documents\selenium_tests\src\test\java\com\seopa\tests\automated\test\cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="128">
   <si>
     <t>Element Type</t>
   </si>
@@ -489,27 +489,6 @@
   </si>
   <si>
     <t>No other vehicles</t>
-  </si>
-  <si>
-    <t>quote_password</t>
-  </si>
-  <si>
-    <t>123456abc</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>hear_about_us</t>
-  </si>
-  <si>
-    <t>Friend</t>
-  </si>
-  <si>
-    <t>Screen Page 3 - Password</t>
-  </si>
-  <si>
-    <t>quote_password_confirm</t>
   </si>
   <si>
     <t>Screen Page 3 - Important Info</t>
@@ -817,6 +796,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -834,9 +816,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1119,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1148,10 +1127,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>4</v>
@@ -1442,34 +1421,34 @@
         <v>13</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="31.95" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8" ht="31.95" customHeight="1">
       <c r="A17" s="7"/>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" ht="31.2">
       <c r="A18" s="7" t="s">
@@ -1507,7 +1486,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1527,7 +1506,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1843,14 +1822,14 @@
     </row>
     <row r="36" spans="1:8" ht="31.95" customHeight="1">
       <c r="A36" s="7"/>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="13" t="s">
@@ -1890,8 +1869,8 @@
       <c r="E38" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
       <c r="H38" s="13" t="s">
         <v>86</v>
       </c>
@@ -2000,14 +1979,14 @@
     </row>
     <row r="44" spans="1:8" ht="31.95" customHeight="1">
       <c r="A44" s="7"/>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" spans="1:8" ht="16.2">
       <c r="A45" s="7" t="s">
@@ -2213,146 +2192,70 @@
     </row>
     <row r="55" spans="1:8" ht="31.95" customHeight="1">
       <c r="A55" s="7"/>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="18"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="31.2">
+      <c r="A57" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="17"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="9" t="s">
+      <c r="G57" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>122</v>
-      </c>
+      <c r="H57" s="4"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>124</v>
-      </c>
+      <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" ht="31.95" customHeight="1">
-      <c r="A60" s="7"/>
-      <c r="C60" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="17"/>
+      <c r="A59" s="9"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="9"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="31.2">
-      <c r="A62" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H62" s="4"/>
+      <c r="A61" s="9"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="9"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="9"/>
@@ -2363,29 +2266,13 @@
     <row r="65" spans="1:1">
       <c r="A65" s="9"/>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="9"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="9"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="9"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="9"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C60:H60"/>
+  <mergeCells count="5">
+    <mergeCell ref="C55:H55"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C55:H55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E32" r:id="rId1"/>
@@ -2405,7 +2292,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2">
+    <row r="1" spans="1:8" ht="46.8">
       <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
@@ -2422,10 +2309,10 @@
         <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H1" s="4"/>
     </row>

--- a/src/test/java/com/seopa/tests/automated/test/cases/SimpleCarJourney01.xlsx
+++ b/src/test/java/com/seopa/tests/automated/test/cases/SimpleCarJourney01.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.mcparland\Documents\selenium_tests\src\test\java\com\seopa\tests\automated\test\cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickmcparland/java/selenium_tests/src/test/java/com/seopa/tests/automated/test/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="636" yWindow="1176" windowWidth="28164" windowHeight="16884" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="127">
   <si>
     <t>Element Type</t>
   </si>
@@ -511,15 +511,12 @@
   <si>
     <t xml:space="preserve">we are currently searching </t>
   </si>
-  <si>
-    <t>About you</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1100,17 +1097,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.296875" style="8" customWidth="1"/>
-    <col min="2" max="8" width="20.296875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="8" customWidth="1"/>
+    <col min="2" max="8" width="20.33203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.4">
+    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>97</v>
       </c>
@@ -1136,7 +1133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.2">
+    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1156,7 +1153,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1176,7 +1173,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -1198,7 +1195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -1220,7 +1217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>32</v>
       </c>
@@ -1242,7 +1239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -1264,7 +1261,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -1284,7 +1281,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="46.8">
+    <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -1304,7 +1301,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="46.8">
+    <row r="10" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1324,7 +1321,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="46.8">
+    <row r="11" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
@@ -1344,7 +1341,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="31.2">
+    <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
@@ -1364,7 +1361,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="62.4">
+    <row r="13" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
@@ -1384,7 +1381,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
@@ -1404,7 +1401,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
@@ -1420,15 +1417,11 @@
       <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>127</v>
-      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="31.95" customHeight="1">
+    <row r="16" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="C16" s="19" t="s">
         <v>63</v>
@@ -1439,7 +1432,7 @@
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:8" ht="31.95" customHeight="1">
+    <row r="17" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="C17" s="16" t="s">
         <v>50</v>
@@ -1450,7 +1443,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="31.2">
+    <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
@@ -1472,7 +1465,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
@@ -1492,7 +1485,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>64</v>
       </c>
@@ -1512,7 +1505,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>44</v>
       </c>
@@ -1532,7 +1525,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>46</v>
       </c>
@@ -1552,7 +1545,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>48</v>
       </c>
@@ -1572,7 +1565,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
@@ -1592,7 +1585,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="16.2">
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>53</v>
       </c>
@@ -1614,7 +1607,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.2">
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>56</v>
       </c>
@@ -1634,7 +1627,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="31.2">
+    <row r="27" spans="1:8" ht="32" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>58</v>
       </c>
@@ -1654,7 +1647,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="16.2">
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>60</v>
       </c>
@@ -1674,7 +1667,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="16.2">
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>61</v>
       </c>
@@ -1694,7 +1687,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="46.8">
+    <row r="30" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>68</v>
       </c>
@@ -1714,7 +1707,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="16.2">
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>70</v>
       </c>
@@ -1736,7 +1729,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>80</v>
       </c>
@@ -1756,7 +1749,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="31.2">
+    <row r="33" spans="1:8" ht="32" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>74</v>
       </c>
@@ -1778,7 +1771,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.2">
+    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>77</v>
       </c>
@@ -1800,7 +1793,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>38</v>
       </c>
@@ -1820,7 +1813,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="31.95" customHeight="1">
+    <row r="36" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="C36" s="16" t="s">
         <v>81</v>
@@ -1831,7 +1824,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="18"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>95</v>
       </c>
@@ -1853,7 +1846,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>84</v>
       </c>
@@ -1875,7 +1868,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>87</v>
       </c>
@@ -1895,7 +1888,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="31.2">
+    <row r="40" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>89</v>
       </c>
@@ -1915,7 +1908,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>91</v>
       </c>
@@ -1935,7 +1928,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>93</v>
       </c>
@@ -1957,7 +1950,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>38</v>
       </c>
@@ -1977,7 +1970,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="31.95" customHeight="1">
+    <row r="44" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="C44" s="16" t="s">
         <v>101</v>
@@ -1988,7 +1981,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="18"/>
     </row>
-    <row r="45" spans="1:8" ht="16.2">
+    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>102</v>
       </c>
@@ -2008,7 +2001,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="46.8">
+    <row r="46" spans="1:8" ht="48" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>104</v>
       </c>
@@ -2030,7 +2023,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>107</v>
       </c>
@@ -2050,7 +2043,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>109</v>
       </c>
@@ -2070,7 +2063,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>111</v>
       </c>
@@ -2090,7 +2083,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>114</v>
       </c>
@@ -2110,7 +2103,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>116</v>
       </c>
@@ -2130,7 +2123,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>117</v>
       </c>
@@ -2150,7 +2143,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>118</v>
       </c>
@@ -2170,7 +2163,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>38</v>
       </c>
@@ -2190,7 +2183,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" ht="31.95" customHeight="1">
+    <row r="55" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="C55" s="16" t="s">
         <v>120</v>
@@ -2201,7 +2194,7 @@
       <c r="G55" s="17"/>
       <c r="H55" s="18"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>121</v>
       </c>
@@ -2218,7 +2211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="31.2">
+    <row r="57" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>38</v>
       </c>
@@ -2242,28 +2235,28 @@
       </c>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
     </row>
   </sheetData>
@@ -2290,9 +2283,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="46.8">
+    <row r="1" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>38</v>
       </c>

--- a/src/test/java/com/seopa/tests/automated/test/cases/SimpleCarJourney01.xlsx
+++ b/src/test/java/com/seopa/tests/automated/test/cases/SimpleCarJourney01.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickmcparland/java/selenium_tests/src/test/java/com/seopa/tests/automated/test/cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.mcparland\Documents\selenium_tests\src\test\java\com\seopa\tests\automated\test\cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="636" yWindow="1176" windowWidth="28164" windowHeight="16884" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="129">
   <si>
     <t>Element Type</t>
   </si>
@@ -511,12 +511,18 @@
   <si>
     <t xml:space="preserve">we are currently searching </t>
   </si>
+  <si>
+    <t>About you</t>
+  </si>
+  <si>
+    <t>found_address</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1095,19 +1101,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="8" customWidth="1"/>
-    <col min="2" max="8" width="20.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="28.296875" style="8" customWidth="1"/>
+    <col min="2" max="8" width="20.296875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="26.4">
       <c r="A1" s="5" t="s">
         <v>97</v>
       </c>
@@ -1133,7 +1139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="31.2">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1153,7 +1159,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1173,7 +1179,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -1195,7 +1201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -1217,7 +1223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="10" t="s">
         <v>32</v>
       </c>
@@ -1239,7 +1245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -1261,7 +1267,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -1281,7 +1287,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="46.8">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -1301,7 +1307,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="46.8">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1321,7 +1327,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="46.8">
       <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
@@ -1341,7 +1347,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="31.2">
       <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
@@ -1361,7 +1367,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="62.4">
       <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
@@ -1381,7 +1387,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
@@ -1401,7 +1407,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
@@ -1417,11 +1423,15 @@
       <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="31.95" customHeight="1">
       <c r="A16" s="7"/>
       <c r="C16" s="19" t="s">
         <v>63</v>
@@ -1432,7 +1442,7 @@
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="31.95" customHeight="1">
       <c r="A17" s="7"/>
       <c r="C17" s="16" t="s">
         <v>50</v>
@@ -1443,7 +1453,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="31.2">
       <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
@@ -1465,7 +1475,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
@@ -1485,7 +1495,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="7" t="s">
         <v>64</v>
       </c>
@@ -1505,7 +1515,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="7" t="s">
         <v>44</v>
       </c>
@@ -1525,7 +1535,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
         <v>46</v>
       </c>
@@ -1545,7 +1555,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="7" t="s">
         <v>48</v>
       </c>
@@ -1565,7 +1575,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
@@ -1585,7 +1595,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="16.2">
       <c r="A25" s="7" t="s">
         <v>53</v>
       </c>
@@ -1607,7 +1617,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="16.2">
       <c r="A26" s="7" t="s">
         <v>56</v>
       </c>
@@ -1627,7 +1637,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="31.2">
       <c r="A27" s="7" t="s">
         <v>58</v>
       </c>
@@ -1647,7 +1657,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="16.2">
       <c r="A28" s="7" t="s">
         <v>60</v>
       </c>
@@ -1667,7 +1677,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="16.2">
       <c r="A29" s="7" t="s">
         <v>61</v>
       </c>
@@ -1687,431 +1697,431 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="16.2">
       <c r="A30" s="7" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>69</v>
+        <v>6</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="46.8">
       <c r="A31" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>70</v>
+        <v>25</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.2">
+      <c r="A32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="13" t="s">
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E33" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" ht="32" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" ht="31.2">
+      <c r="A34" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="11" t="s">
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.2">
       <c r="A35" s="7" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="C36" s="16" t="s">
+      <c r="H35" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" ht="31.95" customHeight="1">
+      <c r="A37" s="7"/>
+      <c r="C37" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="18"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="13" t="s">
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="13" t="s">
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+    <row r="40" spans="1:8">
+      <c r="A40" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="13" t="s">
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="31.2">
       <c r="A41" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>91</v>
+        <v>25</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="7" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="C44" s="16" t="s">
+      <c r="H43" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" ht="31.95" customHeight="1">
+      <c r="A45" s="7"/>
+      <c r="C45" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18"/>
-    </row>
-    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="18"/>
+    </row>
+    <row r="46" spans="1:8" ht="16.2">
+      <c r="A46" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="14" t="s">
+      <c r="B46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" ht="48" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" ht="46.8">
       <c r="A47" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>107</v>
+      <c r="C47" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H47" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B49" s="9" t="s">
+    <row r="49" spans="1:8">
+      <c r="A49" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
-        <v>114</v>
+      <c r="E49" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>67</v>
@@ -2123,15 +2133,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>67</v>
@@ -2143,132 +2153,148 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E53" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H54" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
+    <row r="55" spans="1:8">
+      <c r="A55" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
-      <c r="C55" s="16" t="s">
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" ht="31.95" customHeight="1">
+      <c r="A56" s="7"/>
+      <c r="C56" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="18"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="18"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="13" t="s">
+      <c r="B57" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D57" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E57" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
+    <row r="58" spans="1:8">
+      <c r="A58" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="9"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="9"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="9"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="9"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="9"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" s="9"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" s="9"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C45:H45"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E32" r:id="rId1"/>
+    <hyperlink ref="E33" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -2283,9 +2309,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="46.8">
       <c r="A1" s="7" t="s">
         <v>38</v>
       </c>

--- a/src/test/java/com/seopa/tests/automated/test/cases/SimpleCarJourney01.xlsx
+++ b/src/test/java/com/seopa/tests/automated/test/cases/SimpleCarJourney01.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="143">
   <si>
     <t>Element Type</t>
   </si>
@@ -516,6 +516,48 @@
   </si>
   <si>
     <t>found_address</t>
+  </si>
+  <si>
+    <t>vehicle_confirm</t>
+  </si>
+  <si>
+    <t>Enter text into text box</t>
+  </si>
+  <si>
+    <t>Press the find button</t>
+  </si>
+  <si>
+    <t>Enter number into text box</t>
+  </si>
+  <si>
+    <t>Select radio button</t>
+  </si>
+  <si>
+    <t>Select N in dropdown</t>
+  </si>
+  <si>
+    <t>Enter number</t>
+  </si>
+  <si>
+    <t>Select next button</t>
+  </si>
+  <si>
+    <t>No children</t>
+  </si>
+  <si>
+    <t>Use link text because that is the only way to uniquely identify the button</t>
+  </si>
+  <si>
+    <t>Confirm the vehicle returned by selecting the first vehicle in the drop down. Drop by index used because the drop down is populated by JavaScript</t>
+  </si>
+  <si>
+    <t>Drop by index used because the drop down is populated by JavaScript</t>
+  </si>
+  <si>
+    <t>Select radio button - Xpath used to uniquely identify radio button</t>
+  </si>
+  <si>
+    <t>Could have used value or text - text is what is displayed on the screen</t>
   </si>
 </sst>
 </file>
@@ -608,7 +650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -758,12 +800,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -819,6 +900,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1101,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1157,7 +1250,9 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
@@ -1177,145 +1272,151 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>16</v>
+      <c r="H3" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="124.8">
+      <c r="A4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="10" t="s">
-        <v>32</v>
+      <c r="A6" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="4">
-        <v>2015</v>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7" t="s">
-        <v>21</v>
+      <c r="A7" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>33</v>
+      <c r="E7" s="4">
+        <v>2015</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4">
-        <v>4003</v>
+        <v>67</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="46.8">
+      <c r="H8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="31.2">
       <c r="A9" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4003</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="46.8">
+      <c r="H9" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="62.4">
       <c r="A10" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>12</v>
@@ -1325,17 +1426,19 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="46.8">
       <c r="A11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>12</v>
@@ -1345,165 +1448,177 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="31.2">
+      <c r="H11" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="46.8">
       <c r="A12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="62.4">
+      <c r="H12" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="31.2">
       <c r="A13" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="62.4">
       <c r="A14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="4">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="31.95" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="C16" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
+      <c r="H16" s="4" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="31.95" customHeight="1">
       <c r="A17" s="7"/>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" ht="31.95" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="C18" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:8" ht="31.2">
-      <c r="A18" s="7" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" ht="31.2">
+      <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>7</v>
@@ -1517,19 +1632,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1537,19 +1652,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1557,19 +1672,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1577,101 +1692,103 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="16.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>53</v>
+      <c r="C25" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="16.2">
       <c r="A26" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" ht="31.2">
+      <c r="H26" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.2">
       <c r="A27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" ht="16.2">
+      <c r="H27" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="31.2">
       <c r="A28" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1679,280 +1796,286 @@
     </row>
     <row r="29" spans="1:8" ht="16.2">
       <c r="A29" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="16.2">
+    <row r="30" spans="1:8" ht="62.4">
       <c r="A30" s="7" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" ht="46.8">
+      <c r="H30" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="62.4">
       <c r="A31" s="7" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>69</v>
+        <v>6</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" ht="16.2">
+      <c r="H31" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="46.8">
       <c r="A32" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>70</v>
+        <v>25</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.2">
+      <c r="A33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="13" t="s">
+    <row r="34" spans="1:8">
+      <c r="A34" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="13" t="s">
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E34" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" ht="31.2">
-      <c r="A34" s="7" t="s">
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="31.2">
+      <c r="A35" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="11" t="s">
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="16.2">
-      <c r="A35" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.2">
       <c r="A36" s="7" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" ht="31.95" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="C37" s="16" t="s">
+      <c r="H36" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" ht="31.95" customHeight="1">
+      <c r="A38" s="7"/>
+      <c r="C38" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="13" t="s">
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="13" t="s">
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="62.4">
+      <c r="A41" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="13" t="s">
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" ht="31.2">
-      <c r="A41" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="H41" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="31.2">
       <c r="A42" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>91</v>
+        <v>25</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -1960,188 +2083,188 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="7" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" ht="31.95" customHeight="1">
-      <c r="A45" s="7"/>
-      <c r="C45" s="16" t="s">
+      <c r="H44" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" ht="31.95" customHeight="1">
+      <c r="A46" s="7"/>
+      <c r="C46" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" spans="1:8" ht="16.2">
-      <c r="A46" s="7" t="s">
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="18"/>
+    </row>
+    <row r="47" spans="1:8" ht="16.2">
+      <c r="A47" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="14" t="s">
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" ht="46.8">
-      <c r="A47" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" ht="46.8">
       <c r="A48" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>107</v>
+      <c r="C48" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
+      <c r="H48" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="A50" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="E50" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="13" t="s">
-        <v>114</v>
+      <c r="A51" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="9" t="s">
-        <v>116</v>
+      <c r="A52" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>67</v>
@@ -2155,13 +2278,13 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>67</v>
@@ -2175,94 +2298,111 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E54" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="H55" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="7" t="s">
+    <row r="56" spans="1:8">
+      <c r="A56" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" ht="31.95" customHeight="1">
-      <c r="A56" s="7"/>
-      <c r="C56" s="16" t="s">
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" ht="31.95" customHeight="1">
+      <c r="A57" s="7"/>
+      <c r="C57" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="18"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="13" t="s">
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="18"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="13" t="s">
+      <c r="B58" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D58" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E58" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="7" t="s">
+    <row r="59" spans="1:8">
+      <c r="A59" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="9"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="9"/>
@@ -2285,16 +2425,19 @@
     <row r="66" spans="1:1">
       <c r="A66" s="9"/>
     </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C57:H57"/>
     <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C46:H46"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E33" r:id="rId1"/>
+    <hyperlink ref="E34" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>

--- a/src/test/java/com/seopa/tests/automated/test/cases/SimpleCarJourney01.xlsx
+++ b/src/test/java/com/seopa/tests/automated/test/cases/SimpleCarJourney01.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.mcparland\Documents\selenium_tests\src\test\java\com\seopa\tests\automated\test\cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickmcparland/java/selenium_tests/src/test/java/com/seopa/tests/automated/test/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="636" yWindow="1176" windowWidth="28164" windowHeight="16884" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -883,6 +883,18 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -900,18 +912,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1196,17 +1196,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.296875" style="8" customWidth="1"/>
-    <col min="2" max="8" width="20.296875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="8" customWidth="1"/>
+    <col min="2" max="8" width="20.33203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.4">
+    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>97</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.2">
+    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1276,29 +1276,29 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="124.8">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>32</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="31.2">
+    <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="62.4">
+    <row r="10" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="46.8">
+    <row r="11" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="46.8">
+    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="31.2">
+    <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="62.4">
+    <row r="14" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
@@ -1566,29 +1566,29 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="31.95" customHeight="1">
+    <row r="17" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:8" ht="31.95" customHeight="1">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:8" ht="31.2">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>43</v>
       </c>
@@ -1630,7 +1630,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>64</v>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>44</v>
       </c>
@@ -1670,7 +1670,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>46</v>
       </c>
@@ -1690,7 +1690,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>48</v>
       </c>
@@ -1710,7 +1710,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>52</v>
       </c>
@@ -1730,7 +1730,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="16.2">
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>53</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.2">
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>56</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="31.2">
+    <row r="28" spans="1:8" ht="32" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>58</v>
       </c>
@@ -1794,7 +1794,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="16.2">
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>60</v>
       </c>
@@ -1814,7 +1814,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="62.4">
+    <row r="30" spans="1:8" ht="64" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>61</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="62.4">
+    <row r="31" spans="1:8" ht="64" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>128</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="46.8">
+    <row r="32" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>68</v>
       </c>
@@ -1878,7 +1878,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="16.2">
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>70</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>80</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="G34" s="12"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="31.2">
+    <row r="35" spans="1:8" ht="32" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>74</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.2">
+    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>77</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
@@ -1984,18 +1984,18 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="31.95" customHeight="1">
+    <row r="38" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="18"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="22"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>95</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>84</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="62.4">
+    <row r="41" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>87</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="31.2">
+    <row r="42" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>89</v>
       </c>
@@ -2081,7 +2081,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>91</v>
       </c>
@@ -2101,7 +2101,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>93</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>38</v>
       </c>
@@ -2143,18 +2143,18 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="31.95" customHeight="1">
+    <row r="46" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="18"/>
-    </row>
-    <row r="47" spans="1:8" ht="16.2">
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="22"/>
+    </row>
+    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>102</v>
       </c>
@@ -2174,7 +2174,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="46.8">
+    <row r="48" spans="1:8" ht="48" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>104</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>107</v>
       </c>
@@ -2216,7 +2216,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>109</v>
       </c>
@@ -2236,7 +2236,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>111</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>114</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>116</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>117</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>118</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>38</v>
       </c>
@@ -2356,18 +2356,18 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" ht="31.95" customHeight="1">
+    <row r="57" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="18"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="22"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>121</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>38</v>
       </c>
@@ -2404,28 +2404,28 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
     </row>
   </sheetData>
@@ -2452,9 +2452,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="46.8">
+    <row r="1" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
